--- a/table_example.xlsx
+++ b/table_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D499D4-5FB8-4D58-BC70-3071AC2457C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E364BCDD-AB5D-4A7E-A2DA-C8C46E64D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17268" windowHeight="8964" xr2:uid="{94D0FA08-2DC0-4490-ADF1-23C82C833774}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17268" windowHeight="8964" xr2:uid="{94D0FA08-2DC0-4490-ADF1-23C82C833774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>AVT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CF0AB-9179-4F97-9AFA-F44F2817C1B0}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="A14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -568,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -582,6 +582,28 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>

--- a/table_example.xlsx
+++ b/table_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E364BCDD-AB5D-4A7E-A2DA-C8C46E64D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86DD6F-44EA-4E46-9BF3-05140C891052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17268" windowHeight="8964" xr2:uid="{94D0FA08-2DC0-4490-ADF1-23C82C833774}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17268" windowHeight="8964" xr2:uid="{94D0FA08-2DC0-4490-ADF1-23C82C833774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>AVT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STFH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VSR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,12 +72,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>YARD</t>
   </si>
   <si>
     <t>6wharf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CF0AB-9179-4F97-9AFA-F44F2817C1B0}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="A14:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -466,13 +452,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -480,21 +466,21 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -502,109 +488,109 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/table_example.xlsx
+++ b/table_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86DD6F-44EA-4E46-9BF3-05140C891052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36E3AE-870B-4B0D-976E-031C9B551D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17268" windowHeight="8964" xr2:uid="{94D0FA08-2DC0-4490-ADF1-23C82C833774}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17268" windowHeight="8964" xr2:uid="{94D0FA08-2DC0-4490-ADF1-23C82C833774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
-  <si>
-    <t>AVT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>MODEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +52,55 @@
   </si>
   <si>
     <t>6wharf</t>
+  </si>
+  <si>
+    <t>NewSorentoR</t>
+  </si>
+  <si>
+    <t>TheNewCanival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulBoosterEV14</t>
+  </si>
+  <si>
+    <t>AllNewSorento</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Winstorm</t>
+  </si>
+  <si>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>LFSonata</t>
+  </si>
+  <si>
+    <t>NFSonata</t>
+  </si>
+  <si>
+    <t>YFSonata</t>
+  </si>
+  <si>
+    <t>GrandStarex</t>
+  </si>
+  <si>
+    <t>GranduerHG</t>
+  </si>
+  <si>
+    <t>GranduerIG</t>
+  </si>
+  <si>
+    <t>SantaFeTM</t>
+  </si>
+  <si>
+    <t>AvanteMD</t>
+  </si>
+  <si>
+    <t>TheNewKona</t>
   </si>
 </sst>
 </file>
@@ -439,158 +464,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CF0AB-9179-4F97-9AFA-F44F2817C1B0}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/table_example.xlsx
+++ b/table_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turing\BIG DATA\Project\UPA_WEB\ANDANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36E3AE-870B-4B0D-976E-031C9B551D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82C03F-DFC7-4C0A-9827-4301E3F4FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17268" windowHeight="8964" xr2:uid="{94D0FA08-2DC0-4490-ADF1-23C82C833774}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17268" windowHeight="8964" xr2:uid="{94D0FA08-2DC0-4490-ADF1-23C82C833774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CF0AB-9179-4F97-9AFA-F44F2817C1B0}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -489,10 +489,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -533,10 +533,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -654,10 +654,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>52</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>52</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
